--- a/压测数据.xlsx
+++ b/压测数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="3"/>
+    <workbookView windowWidth="24045" windowHeight="12960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stress" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
   <si>
     <t>part</t>
   </si>
@@ -148,19 +148,29 @@
     <t>stress_base</t>
   </si>
   <si>
+    <t>load-trend</t>
+  </si>
+  <si>
+    <t>stress_base1</t>
+  </si>
+  <si>
+    <t>task_image</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,34 +178,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,14 +194,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +233,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,7 +298,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,55 +334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,31 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +394,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,7 +418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,21 +654,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -687,6 +682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,152 +755,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +911,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -942,52 +958,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6713,6 +6729,136 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.00685518631982413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>load-trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.00349057334074598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00304215558452828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0023772772851718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>task_image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.00652371267514437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00729562539876255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00239605514682399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9930,8 +10076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3563620" y="1991995"/>
-        <a:ext cx="5685790" cy="2209800"/>
+        <a:off x="3925570" y="1877695"/>
+        <a:ext cx="6297295" cy="2065655"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9965,8 +10111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4109720" y="855980"/>
-        <a:ext cx="5905500" cy="2384425"/>
+        <a:off x="4547870" y="810260"/>
+        <a:ext cx="6517005" cy="2235835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10000,8 +10146,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4396740" y="5861685"/>
-        <a:ext cx="7612380" cy="3103245"/>
+        <a:off x="4852670" y="5495925"/>
+        <a:ext cx="8462645" cy="2920365"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10018,16 +10164,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10035,8 +10181,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3304540" y="4645660"/>
-        <a:ext cx="6628765" cy="2543810"/>
+        <a:off x="3576320" y="5169535"/>
+        <a:ext cx="7898130" cy="2383790"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10048,16 +10194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>658495</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10065,8 +10211,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3312160" y="7490460"/>
-        <a:ext cx="6581775" cy="2804160"/>
+        <a:off x="3592195" y="7705725"/>
+        <a:ext cx="7552055" cy="2625090"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10343,10 +10489,10 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889"/>
+    <col min="1" max="1" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="12.8916666666667"/>
     <col min="3" max="4" width="9.66666666666667"/>
   </cols>
   <sheetData>
@@ -10936,10 +11082,10 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="4" width="14.1111111111111"/>
+    <col min="1" max="1" width="15.225" customWidth="1"/>
+    <col min="2" max="4" width="14.1083333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11528,104 +11674,104 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="4" width="12.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="14.1083333333333" customWidth="1"/>
+    <col min="3" max="4" width="12.8916666666667" customWidth="1"/>
     <col min="5" max="5" width="4.66666666666667" customWidth="1"/>
     <col min="6" max="8" width="8.66666666666667" customWidth="1"/>
     <col min="10" max="23" width="7.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -11636,11 +11782,11 @@
         <f>(G2-C$39)/C$39</f>
         <v>-0.00125388648072069</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <f>(H2-D$39)/D$39</f>
         <v>-0.003794924499579</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="9"/>
       <c r="F2">
         <f>AVERAGE(J2,N2,R2,V2,Z2)</f>
         <v>52.103</v>
@@ -11649,63 +11795,63 @@
         <f>AVERAGE(K2,O2,S2,W2,AA2)</f>
         <v>35.2062</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="10">
         <f>AVERAGE(L2,P2,T2,X2,AB2)</f>
         <v>82.5856</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="9"/>
       <c r="J2">
         <v>52.085</v>
       </c>
       <c r="K2">
         <v>35.2</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="14">
         <v>82.433</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="9"/>
       <c r="N2">
         <v>51.643</v>
       </c>
       <c r="O2">
         <v>35.24</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="10">
         <v>82.747</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="9"/>
       <c r="R2">
         <v>51.981</v>
       </c>
       <c r="S2">
         <v>34.996</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="10">
         <v>82.01</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="9"/>
       <c r="V2">
         <v>51.998</v>
       </c>
       <c r="W2">
         <v>35.255</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="10">
         <v>82.374</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="9"/>
       <c r="Z2">
         <v>52.808</v>
       </c>
       <c r="AA2">
         <v>35.34</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="10">
         <v>83.364</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -11716,11 +11862,11 @@
         <f t="shared" ref="C3:C21" si="1">(G3-C$39)/C$39</f>
         <v>-0.00140707623175902</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D21" si="2">(H3-D$39)/D$39</f>
         <v>-0.00166465219625515</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="3">AVERAGE(J3,N3,R3,V3,Z3)</f>
         <v>52.1292</v>
@@ -11729,63 +11875,63 @@
         <f t="shared" ref="G3:G21" si="4">AVERAGE(K3,O3,S3,W3,AA3)</f>
         <v>35.2008</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H21" si="5">AVERAGE(L3,P3,T3,X3,AB3)</f>
         <v>82.7622</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="9"/>
       <c r="J3">
         <v>52.401</v>
       </c>
       <c r="K3">
         <v>35.117</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="14">
         <v>83.092</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="9"/>
       <c r="N3">
         <v>52.348</v>
       </c>
       <c r="O3">
         <v>35.36</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>83.04</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="9"/>
       <c r="R3">
         <v>52.092</v>
       </c>
       <c r="S3">
         <v>35.076</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="10">
         <v>83.093</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="9"/>
       <c r="V3">
         <v>51.823</v>
       </c>
       <c r="W3">
         <v>35.176</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="10">
         <v>82.117</v>
       </c>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="9"/>
       <c r="Z3">
         <v>51.982</v>
       </c>
       <c r="AA3">
         <v>35.275</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="10">
         <v>82.469</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -11796,11 +11942,11 @@
         <f t="shared" si="1"/>
         <v>0.00194607720763462</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <f t="shared" si="2"/>
         <v>-0.00527622370030483</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="9"/>
       <c r="F4">
         <f t="shared" si="3"/>
         <v>52.5032</v>
@@ -11809,63 +11955,63 @@
         <f t="shared" si="4"/>
         <v>35.319</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f t="shared" si="5"/>
         <v>82.4628</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="9"/>
       <c r="J4">
         <v>52.91</v>
       </c>
       <c r="K4">
         <v>35.457</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="14">
         <v>82.757</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="9"/>
       <c r="N4">
         <v>52.43</v>
       </c>
       <c r="O4">
         <v>35.318</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>82.314</v>
       </c>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="9"/>
       <c r="R4">
         <v>52.437</v>
       </c>
       <c r="S4">
         <v>35.54</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="10">
         <v>83.612</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="9"/>
       <c r="V4">
         <v>52.242</v>
       </c>
       <c r="W4">
         <v>34.918</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="10">
         <v>81.673</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="9"/>
       <c r="Z4">
         <v>52.497</v>
       </c>
       <c r="AA4">
         <v>35.362</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="10">
         <v>81.958</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -11876,11 +12022,11 @@
         <f t="shared" si="1"/>
         <v>-0.000215600390350081</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <f t="shared" si="2"/>
         <v>-0.00243425226959652</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5">
         <f t="shared" si="3"/>
         <v>52.2904</v>
@@ -11889,63 +12035,63 @@
         <f t="shared" si="4"/>
         <v>35.2428</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f t="shared" si="5"/>
         <v>82.6984</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="9"/>
       <c r="J5">
         <v>52.127</v>
       </c>
       <c r="K5">
         <v>35.234</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="14">
         <v>83.112</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="9"/>
       <c r="N5">
         <v>52.662</v>
       </c>
       <c r="O5">
         <v>35.396</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>83.006</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="9"/>
       <c r="R5">
         <v>52.262</v>
       </c>
       <c r="S5">
         <v>35.277</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="10">
         <v>82.671</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="9"/>
       <c r="V5">
         <v>52.224</v>
       </c>
       <c r="W5">
         <v>35.072</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="10">
         <v>82.041</v>
       </c>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="9"/>
       <c r="Z5">
         <v>52.177</v>
       </c>
       <c r="AA5">
         <v>35.235</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="10">
         <v>82.662</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -11956,11 +12102,11 @@
         <f t="shared" si="1"/>
         <v>-0.0086977736422848</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <f t="shared" si="2"/>
         <v>-0.00310011314809845</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6">
         <f t="shared" si="3"/>
         <v>51.7534</v>
@@ -11969,63 +12115,63 @@
         <f t="shared" si="4"/>
         <v>34.9438</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" si="5"/>
         <v>82.6432</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="9"/>
       <c r="J6">
         <v>50.43</v>
       </c>
       <c r="K6">
         <v>34.218</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <v>80.608</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="9"/>
       <c r="N6">
         <v>51.968</v>
       </c>
       <c r="O6">
         <v>35.011</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>82.856</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="9"/>
       <c r="R6">
         <v>52.024</v>
       </c>
       <c r="S6">
         <v>35.251</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="10">
         <v>84.373</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="9"/>
       <c r="V6">
         <v>51.784</v>
       </c>
       <c r="W6">
         <v>35.079</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="10">
         <v>82.513</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="9"/>
       <c r="Z6">
         <v>52.561</v>
       </c>
       <c r="AA6">
         <v>35.16</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="10">
         <v>82.866</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -12036,11 +12182,11 @@
         <f t="shared" si="1"/>
         <v>-0.00813040419399516</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <f t="shared" si="2"/>
         <v>-0.00673098496746682</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7">
         <f t="shared" si="3"/>
         <v>51.7034</v>
@@ -12049,63 +12195,63 @@
         <f t="shared" si="4"/>
         <v>34.9638</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="5"/>
         <v>82.3422</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="9"/>
       <c r="J7">
         <v>50.055</v>
       </c>
       <c r="K7">
         <v>34.29</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="14">
         <v>80.047</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="9"/>
       <c r="N7">
         <v>52.43</v>
       </c>
       <c r="O7">
         <v>35.19</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="10">
         <v>82.611</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="9"/>
       <c r="R7">
         <v>52.315</v>
       </c>
       <c r="S7">
         <v>35.053</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="10">
         <v>83.043</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="9"/>
       <c r="V7">
         <v>51.458</v>
       </c>
       <c r="W7">
         <v>35.194</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="10">
         <v>83.266</v>
       </c>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="9"/>
       <c r="Z7">
         <v>52.259</v>
       </c>
       <c r="AA7">
         <v>35.092</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="10">
         <v>82.744</v>
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8">
@@ -12116,11 +12262,11 @@
         <f t="shared" si="1"/>
         <v>-0.00654176973878318</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <f t="shared" si="2"/>
         <v>-0.00946680466392125</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8">
         <f t="shared" si="3"/>
         <v>51.8386</v>
@@ -12129,63 +12275,63 @@
         <f t="shared" si="4"/>
         <v>35.0198</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="5"/>
         <v>82.1154</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="9"/>
       <c r="J8">
         <v>50.214</v>
       </c>
       <c r="K8">
         <v>34.317</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="14">
         <v>79.728</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="9"/>
       <c r="N8">
         <v>52.229</v>
       </c>
       <c r="O8">
         <v>35.349</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="10">
         <v>82.403</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="9"/>
       <c r="R8">
         <v>52.323</v>
       </c>
       <c r="S8">
         <v>35.279</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="10">
         <v>83.272</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="9"/>
       <c r="V8">
         <v>52.368</v>
       </c>
       <c r="W8">
         <v>34.952</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="10">
         <v>82.756</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="9"/>
       <c r="Z8">
         <v>52.059</v>
       </c>
       <c r="AA8">
         <v>35.202</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="10">
         <v>82.418</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -12196,11 +12342,11 @@
         <f t="shared" si="1"/>
         <v>-0.00457299775321721</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <f t="shared" si="2"/>
         <v>2.89504729784562e-5</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>52.188</v>
@@ -12209,63 +12355,63 @@
         <f t="shared" si="4"/>
         <v>35.0892</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <f t="shared" si="5"/>
         <v>82.9026</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="9"/>
       <c r="J9">
         <v>52.586</v>
       </c>
       <c r="K9">
         <v>35.267</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="14">
         <v>82.802</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="9"/>
       <c r="N9">
         <v>52.052</v>
       </c>
       <c r="O9">
         <v>35.315</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="10">
         <v>82.68</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="9"/>
       <c r="R9">
         <v>52.439</v>
       </c>
       <c r="S9">
         <v>34.88</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="10">
         <v>83.157</v>
       </c>
-      <c r="U9" s="7"/>
+      <c r="U9" s="9"/>
       <c r="V9">
         <v>51.488</v>
       </c>
       <c r="W9">
         <v>34.943</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="10">
         <v>82.714</v>
       </c>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="9"/>
       <c r="Z9">
         <v>52.375</v>
       </c>
       <c r="AA9">
         <v>35.041</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="10">
         <v>83.16</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10">
@@ -12276,11 +12422,11 @@
         <f t="shared" si="1"/>
         <v>-0.0122948959444432</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <f t="shared" si="2"/>
         <v>-0.0144872991862505</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10">
         <f t="shared" si="3"/>
         <v>51.6214</v>
@@ -12289,63 +12435,63 @@
         <f t="shared" si="4"/>
         <v>34.817</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <f t="shared" si="5"/>
         <v>81.6992</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="9"/>
       <c r="J10">
         <v>49.473</v>
       </c>
       <c r="K10">
         <v>33.722</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="14">
         <v>79.069</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="9"/>
       <c r="N10">
         <v>52.081</v>
       </c>
       <c r="O10">
         <v>35.1</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="10">
         <v>82.326</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="9"/>
       <c r="R10">
         <v>52.752</v>
       </c>
       <c r="S10">
         <v>35.337</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="10">
         <v>82.657</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="9"/>
       <c r="V10">
         <v>51.432</v>
       </c>
       <c r="W10">
         <v>34.907</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="10">
         <v>82.057</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="9"/>
       <c r="Z10">
         <v>52.369</v>
       </c>
       <c r="AA10">
         <v>35.019</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="10">
         <v>82.387</v>
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B11">
@@ -12356,11 +12502,11 @@
         <f t="shared" si="1"/>
         <v>0.000470916642080568</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <f t="shared" si="2"/>
         <v>-0.00242701465135187</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>52.3838</v>
@@ -12369,63 +12515,63 @@
         <f t="shared" si="4"/>
         <v>35.267</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>82.699</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="9"/>
       <c r="J11">
         <v>52.035</v>
       </c>
       <c r="K11">
         <v>35.316</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="14">
         <v>81.757</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="9"/>
       <c r="N11">
         <v>52.612</v>
       </c>
       <c r="O11">
         <v>35.305</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>83.109</v>
       </c>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="9"/>
       <c r="R11">
         <v>52.973</v>
       </c>
       <c r="S11">
         <v>35.421</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="10">
         <v>83.994</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="9"/>
       <c r="V11">
         <v>51.681</v>
       </c>
       <c r="W11">
         <v>35.195</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="10">
         <v>81.948</v>
       </c>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="9"/>
       <c r="Z11">
         <v>52.618</v>
       </c>
       <c r="AA11">
         <v>35.098</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="10">
         <v>82.687</v>
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -12436,11 +12582,11 @@
         <f t="shared" si="1"/>
         <v>-0.00275174182420629</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <f t="shared" si="2"/>
         <v>-0.00159227601380926</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>52.1066</v>
@@ -12449,63 +12595,63 @@
         <f t="shared" si="4"/>
         <v>35.1534</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f t="shared" si="5"/>
         <v>82.7682</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="9"/>
       <c r="J12">
         <v>52.088</v>
       </c>
       <c r="K12">
         <v>35.055</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="14">
         <v>82.572</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="9"/>
       <c r="N12">
         <v>51.96</v>
       </c>
       <c r="O12">
         <v>35.15</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="10">
         <v>82.604</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="9"/>
       <c r="R12">
         <v>52.327</v>
       </c>
       <c r="S12">
         <v>35.232</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="10">
         <v>83.155</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="9"/>
       <c r="V12">
         <v>52.32</v>
       </c>
       <c r="W12">
         <v>35.068</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="10">
         <v>83.101</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="9"/>
       <c r="Z12">
         <v>51.838</v>
       </c>
       <c r="AA12">
         <v>35.262</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="10">
         <v>82.409</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B13">
@@ -12516,11 +12662,11 @@
         <f t="shared" si="1"/>
         <v>-0.00146381317658808</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <f t="shared" si="2"/>
         <v>-0.00480095343557671</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13">
         <f t="shared" si="3"/>
         <v>52.1304</v>
@@ -12529,63 +12675,63 @@
         <f t="shared" si="4"/>
         <v>35.1988</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>82.5022</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="9"/>
       <c r="J13">
         <v>52.096</v>
       </c>
       <c r="K13">
         <v>35.323</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <v>82.516</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="9"/>
       <c r="N13">
         <v>52.364</v>
       </c>
       <c r="O13">
         <v>35.283</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="10">
         <v>82.688</v>
       </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="9"/>
       <c r="R13">
         <v>52.253</v>
       </c>
       <c r="S13">
         <v>35.24</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="10">
         <v>82.028</v>
       </c>
-      <c r="U13" s="7"/>
+      <c r="U13" s="9"/>
       <c r="V13">
         <v>51.951</v>
       </c>
       <c r="W13">
         <v>34.989</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="10">
         <v>82.045</v>
       </c>
-      <c r="Y13" s="7"/>
+      <c r="Y13" s="9"/>
       <c r="Z13">
         <v>51.988</v>
       </c>
       <c r="AA13">
         <v>35.159</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="10">
         <v>83.234</v>
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -12596,11 +12742,11 @@
         <f t="shared" si="1"/>
         <v>-0.00556589428772452</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <f t="shared" si="2"/>
         <v>-0.00276959524826226</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14">
         <f t="shared" si="3"/>
         <v>51.7754</v>
@@ -12609,63 +12755,63 @@
         <f t="shared" si="4"/>
         <v>35.0542</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="5"/>
         <v>82.6706</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="9"/>
       <c r="J14">
         <v>51.082</v>
       </c>
       <c r="K14">
         <v>34.559</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="14">
         <v>83.025</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="9"/>
       <c r="N14">
         <v>51.465</v>
       </c>
       <c r="O14">
         <v>35.116</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="10">
         <v>82.205</v>
       </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="9"/>
       <c r="R14">
         <v>52.673</v>
       </c>
       <c r="S14">
         <v>35.303</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="10">
         <v>84.321</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="9"/>
       <c r="V14">
         <v>51.762</v>
       </c>
       <c r="W14">
         <v>35.126</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="10">
         <v>81.447</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="9"/>
       <c r="Z14">
         <v>51.895</v>
       </c>
       <c r="AA14">
         <v>35.167</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="10">
         <v>82.355</v>
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B15">
@@ -12676,11 +12822,11 @@
         <f t="shared" si="1"/>
         <v>-0.00448221864149063</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>-0.00893604599265149</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15">
         <f t="shared" si="3"/>
         <v>51.8482</v>
@@ -12689,63 +12835,63 @@
         <f t="shared" si="4"/>
         <v>35.0924</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <f t="shared" si="5"/>
         <v>82.1594</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="9"/>
       <c r="J15">
         <v>50.091</v>
       </c>
       <c r="K15">
         <v>34.329</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="14">
         <v>80.554</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="9"/>
       <c r="N15">
         <v>52.29</v>
       </c>
       <c r="O15">
         <v>35.412</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <v>82.023</v>
       </c>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="9"/>
       <c r="R15">
         <v>52.159</v>
       </c>
       <c r="S15">
         <v>35.344</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="10">
         <v>83.097</v>
       </c>
-      <c r="U15" s="7"/>
+      <c r="U15" s="9"/>
       <c r="V15">
         <v>52.306</v>
       </c>
       <c r="W15">
         <v>35.057</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="10">
         <v>82.161</v>
       </c>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="9"/>
       <c r="Z15">
         <v>52.395</v>
       </c>
       <c r="AA15">
         <v>35.32</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="10">
         <v>82.962</v>
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B16">
@@ -12756,11 +12902,11 @@
         <f t="shared" si="1"/>
         <v>-0.00422690238976014</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <f t="shared" si="2"/>
         <v>-0.00609648710135795</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16">
         <f t="shared" si="3"/>
         <v>52.1304</v>
@@ -12769,63 +12915,63 @@
         <f t="shared" si="4"/>
         <v>35.1014</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <f t="shared" si="5"/>
         <v>82.3948</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="9"/>
       <c r="J16">
         <v>51.069</v>
       </c>
       <c r="K16">
         <v>34.623</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="14">
         <v>80.854</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="9"/>
       <c r="N16">
         <v>52.345</v>
       </c>
       <c r="O16">
         <v>35.135</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="10">
         <v>81.717</v>
       </c>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="9"/>
       <c r="R16">
         <v>52.173</v>
       </c>
       <c r="S16">
         <v>35.481</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="10">
         <v>83.343</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="9"/>
       <c r="V16">
         <v>52.475</v>
       </c>
       <c r="W16">
         <v>35.206</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="10">
         <v>83.116</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="9"/>
       <c r="Z16">
         <v>52.59</v>
       </c>
       <c r="AA16">
         <v>35.062</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="10">
         <v>82.944</v>
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -12836,11 +12982,11 @@
         <f t="shared" si="1"/>
         <v>-0.0176735583142318</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <f t="shared" si="2"/>
         <v>-0.00893122091382161</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17">
         <f t="shared" si="3"/>
         <v>51.4064</v>
@@ -12849,63 +12995,63 @@
         <f t="shared" si="4"/>
         <v>34.6274</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="10">
         <f t="shared" si="5"/>
         <v>82.1598</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="9"/>
       <c r="J17">
         <v>50.007</v>
       </c>
       <c r="K17">
         <v>34.242</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="14">
         <v>80.831</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="9"/>
       <c r="N17">
         <v>51.05</v>
       </c>
       <c r="O17">
         <v>33.843</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="10">
         <v>82.956</v>
       </c>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="9"/>
       <c r="R17">
         <v>52.415</v>
       </c>
       <c r="S17">
         <v>35.01</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="10">
         <v>82.397</v>
       </c>
-      <c r="U17" s="7"/>
+      <c r="U17" s="9"/>
       <c r="V17">
         <v>51.255</v>
       </c>
       <c r="W17">
         <v>34.915</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="10">
         <v>82.007</v>
       </c>
-      <c r="Y17" s="7"/>
+      <c r="Y17" s="9"/>
       <c r="Z17">
         <v>52.305</v>
       </c>
       <c r="AA17">
         <v>35.127</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="10">
         <v>82.608</v>
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B18">
@@ -12916,11 +13062,11 @@
         <f t="shared" si="1"/>
         <v>0.000970201756575768</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <f t="shared" si="2"/>
         <v>-0.0053872005133886</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18">
         <f t="shared" si="3"/>
         <v>52.3356</v>
@@ -12929,63 +13075,63 @@
         <f t="shared" si="4"/>
         <v>35.2846</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <f t="shared" si="5"/>
         <v>82.4536</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="9"/>
       <c r="J18">
         <v>52.223</v>
       </c>
       <c r="K18">
         <v>35.143</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="14">
         <v>82.47</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="9"/>
       <c r="N18">
         <v>52.576</v>
       </c>
       <c r="O18">
         <v>35.38</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="10">
         <v>82.492</v>
       </c>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="9"/>
       <c r="R18">
         <v>51.952</v>
       </c>
       <c r="S18">
         <v>35.365</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="10">
         <v>82.366</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="9"/>
       <c r="V18">
         <v>52.57</v>
       </c>
       <c r="W18">
         <v>35.233</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="10">
         <v>82.184</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="9"/>
       <c r="Z18">
         <v>52.357</v>
       </c>
       <c r="AA18">
         <v>35.302</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="10">
         <v>82.756</v>
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -12996,11 +13142,11 @@
         <f t="shared" si="1"/>
         <v>0.000198579306901422</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <f t="shared" si="2"/>
         <v>0.00077442515217109</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19">
         <f t="shared" si="3"/>
         <v>52.3458</v>
@@ -13009,63 +13155,63 @@
         <f t="shared" si="4"/>
         <v>35.2574</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="10">
         <f t="shared" si="5"/>
         <v>82.9644</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="9"/>
       <c r="J19">
         <v>52.327</v>
       </c>
       <c r="K19">
         <v>35.325</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="14">
         <v>82.885</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="9"/>
       <c r="N19">
         <v>52.597</v>
       </c>
       <c r="O19">
         <v>35.471</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="10">
         <v>83.083</v>
       </c>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="9"/>
       <c r="R19">
         <v>51.783</v>
       </c>
       <c r="S19">
         <v>35.405</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="10">
         <v>83.805</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="9"/>
       <c r="V19">
         <v>52.294</v>
       </c>
       <c r="W19">
         <v>34.994</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="10">
         <v>81.994</v>
       </c>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="9"/>
       <c r="Z19">
         <v>52.728</v>
       </c>
       <c r="AA19">
         <v>35.092</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB19" s="10">
         <v>83.055</v>
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B20">
@@ -13076,11 +13222,11 @@
         <f t="shared" si="1"/>
         <v>-0.00292762635317616</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <f t="shared" si="2"/>
         <v>-0.00233533815358696</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20">
         <f t="shared" si="3"/>
         <v>52.1252</v>
@@ -13089,138 +13235,138 @@
         <f t="shared" si="4"/>
         <v>35.1472</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="10">
         <f t="shared" si="5"/>
         <v>82.7066</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="9"/>
       <c r="J20">
         <v>52.612</v>
       </c>
       <c r="K20">
         <v>35.305</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="14">
         <v>82.45</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="9"/>
       <c r="N20">
         <v>52.318</v>
       </c>
       <c r="O20">
         <v>34.936</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="10">
         <v>82.772</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="9"/>
       <c r="R20">
         <v>52.051</v>
       </c>
       <c r="S20">
         <v>35.315</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="10">
         <v>83.704</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="9"/>
       <c r="V20">
         <v>51.464</v>
       </c>
       <c r="W20">
         <v>35.062</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="10">
         <v>82.632</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="9"/>
       <c r="Z20">
         <v>52.181</v>
       </c>
       <c r="AA20">
         <v>35.118</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="10">
         <v>81.975</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:28">
-      <c r="A21" s="9" t="s">
+    <row r="21" ht="14.25" spans="1:28">
+      <c r="A21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>0.000317758082732029</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="12">
         <f t="shared" si="1"/>
         <v>-0.008737489503665</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <f t="shared" si="2"/>
         <v>-0.00899153439919329</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10">
+      <c r="E21" s="11"/>
+      <c r="F21" s="12">
         <f t="shared" si="3"/>
         <v>52.2576</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="12">
         <f t="shared" si="4"/>
         <v>34.9424</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="13">
         <f t="shared" si="5"/>
         <v>82.1548</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10">
+      <c r="I21" s="11"/>
+      <c r="J21" s="12">
         <v>52.232</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="12">
         <v>34.831</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="12">
         <v>82.831</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10">
+      <c r="M21" s="11"/>
+      <c r="N21" s="12">
         <v>52.226</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="12">
         <v>34.814</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="13">
         <v>81.453</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12">
         <v>52.06</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="12">
         <v>35.147</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="13">
         <v>82.139</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10">
+      <c r="U21" s="11"/>
+      <c r="V21" s="12">
         <v>52.66</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="12">
         <v>35.204</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="13">
         <v>82.259</v>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10">
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12">
         <v>52.11</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="12">
         <v>34.716</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AB21" s="13">
         <v>82.092</v>
       </c>
     </row>
@@ -13285,156 +13431,156 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="5:15">
-      <c r="E37" s="12"/>
+      <c r="E37" s="14"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" ht="15.15" spans="5:15">
-      <c r="E38" s="12"/>
+    <row r="38" ht="14.25" spans="5:15">
+      <c r="E38" s="14"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" ht="15.15" spans="1:15">
-      <c r="A39" s="13" t="s">
+    <row r="39" ht="14.25" spans="1:15">
+      <c r="A39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="16">
         <f>AVERAGE(B41:B50)</f>
         <v>52.241</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="16">
         <f>AVERAGE(C41:C50)</f>
         <v>35.2504</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="17">
         <f>AVERAGE(D41:D50)</f>
         <v>82.9002</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="14"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="7"/>
+      <c r="A41" s="9"/>
       <c r="B41">
         <v>52.422</v>
       </c>
       <c r="C41">
         <v>35.557</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="10">
         <v>83.283</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="14"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="7"/>
+      <c r="A42" s="9"/>
       <c r="B42">
         <v>52.517</v>
       </c>
       <c r="C42">
         <v>35.175</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="10">
         <v>83.093</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="14"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43">
         <v>52.653</v>
       </c>
       <c r="C43">
         <v>35.222</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="10">
         <v>82.689</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="14"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44">
         <v>51.477</v>
       </c>
       <c r="C44">
         <v>35.104</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="10">
         <v>82.885</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="12"/>
+      <c r="A46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7"/>
+      <c r="A49" s="9"/>
       <c r="B49">
         <v>52.136</v>
       </c>
       <c r="C49">
         <v>35.194</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="10">
         <v>82.551</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" ht="15.15" spans="1:5">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="12"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="12"/>
+      <c r="E52" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13446,23 +13592,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="15.225" customWidth="1"/>
     <col min="2" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
     <col min="7" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="10.775" customWidth="1"/>
+    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
     <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="14" width="9.66666666666667"/>
+    <col min="13" max="14" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13555,31 +13701,31 @@
         <v>alloc-top</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1" t="shared" ref="G3:G23" si="1">AVERAGE(OFFSET(B$2,5*(ROW(B3)-2),0,5))</f>
+        <f ca="1">AVERAGE(OFFSET(B$2,5*(ROW(B3)-2),0,5))</f>
         <v>51.5494</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1" t="shared" ref="H3:H23" si="2">AVERAGE(OFFSET(C$2,5*(ROW(C3)-2),0,5))</f>
+        <f ca="1" t="shared" ref="H3:H23" si="1">AVERAGE(OFFSET(C$2,5*(ROW(C3)-2),0,5))</f>
         <v>34.8008</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1" t="shared" ref="I3:I23" si="3">AVERAGE(OFFSET(D$2,5*(ROW(D3)-2),0,5))</f>
+        <f ca="1" t="shared" ref="I3:I23" si="2">AVERAGE(OFFSET(D$2,5*(ROW(D3)-2),0,5))</f>
         <v>82.1796</v>
       </c>
       <c r="K3" t="str">
-        <f ca="1" t="shared" ref="K3:K22" si="4">F4</f>
+        <f ca="1" t="shared" ref="K3:K22" si="3">F4</f>
         <v>drop-packet</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1" t="shared" ref="L3:L21" si="5">(G4-G$2)/G$2</f>
+        <f ca="1" t="shared" ref="L3:L21" si="4">(G4-G$2)/G$2</f>
         <v>-0.0131567869580191</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1" t="shared" ref="M3:M21" si="6">(H4-H$2)/H$2</f>
+        <f ca="1" t="shared" ref="M3:M21" si="5">(H4-H$2)/H$2</f>
         <v>-0.00719444967020652</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1" t="shared" ref="N3:N21" si="7">(I4-I$2)/I$2</f>
+        <f ca="1" t="shared" ref="N3:N21" si="6">(I4-I$2)/I$2</f>
         <v>7.79275176674478e-5</v>
       </c>
     </row>
@@ -13601,31 +13747,31 @@
         <v>drop-packet</v>
       </c>
       <c r="G4" s="2">
+        <f ca="1" t="shared" ref="G3:G23" si="7">AVERAGE(OFFSET(B$2,5*(ROW(B4)-2),0,5))</f>
+        <v>51.5744</v>
+      </c>
+      <c r="H4" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.5744</v>
-      </c>
-      <c r="H4" s="2">
+        <v>34.8302</v>
+      </c>
+      <c r="I4" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8302</v>
-      </c>
-      <c r="I4" s="2">
+        <v>82.134</v>
+      </c>
+      <c r="K4" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.134</v>
-      </c>
-      <c r="K4" t="str">
+        <v>exec-monitor</v>
+      </c>
+      <c r="L4" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>exec-monitor</v>
-      </c>
-      <c r="L4" s="2">
+        <v>-0.0141402931384179</v>
+      </c>
+      <c r="M4" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0141402931384179</v>
-      </c>
-      <c r="M4" s="2">
+        <v>-0.00429842714051971</v>
+      </c>
+      <c r="N4" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00429842714051971</v>
-      </c>
-      <c r="N4" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>0.00309031312250691</v>
       </c>
     </row>
@@ -13647,31 +13793,31 @@
         <v>exec-monitor</v>
       </c>
       <c r="G5" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.523</v>
+      </c>
+      <c r="H5" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.523</v>
-      </c>
-      <c r="H5" s="2">
+        <v>34.9318</v>
+      </c>
+      <c r="I5" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9318</v>
-      </c>
-      <c r="I5" s="2">
+        <v>82.3814</v>
+      </c>
+      <c r="K5" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.3814</v>
-      </c>
-      <c r="K5" t="str">
+        <v>exit-monitor</v>
+      </c>
+      <c r="L5" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>exit-monitor</v>
-      </c>
-      <c r="L5" s="2">
+        <v>-0.00995369484520307</v>
+      </c>
+      <c r="M5" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00995369484520307</v>
-      </c>
-      <c r="M5" s="2">
+        <v>-0.00549560180830358</v>
+      </c>
+      <c r="N5" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00549560180830358</v>
-      </c>
-      <c r="N5" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>0.00248393962565578</v>
       </c>
     </row>
@@ -13693,31 +13839,31 @@
         <v>exit-monitor</v>
       </c>
       <c r="G6" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.7418</v>
+      </c>
+      <c r="H6" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.7418</v>
-      </c>
-      <c r="H6" s="2">
+        <v>34.8898</v>
+      </c>
+      <c r="I6" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8898</v>
-      </c>
-      <c r="I6" s="2">
+        <v>82.3316</v>
+      </c>
+      <c r="K6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.3316</v>
-      </c>
-      <c r="K6" t="str">
+        <v>high-order</v>
+      </c>
+      <c r="L6" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>high-order</v>
-      </c>
-      <c r="L6" s="2">
+        <v>-0.0122842600742412</v>
+      </c>
+      <c r="M6" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0122842600742412</v>
-      </c>
-      <c r="M6" s="2">
+        <v>-0.00393927474018432</v>
+      </c>
+      <c r="N6" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00393927474018432</v>
-      </c>
-      <c r="N6" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00431280105591794</v>
       </c>
     </row>
@@ -13739,31 +13885,31 @@
         <v>high-order</v>
       </c>
       <c r="G7" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.62</v>
+      </c>
+      <c r="H7" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.62</v>
-      </c>
-      <c r="H7" s="2">
+        <v>34.9444</v>
+      </c>
+      <c r="I7" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9444</v>
-      </c>
-      <c r="I7" s="2">
+        <v>81.7734</v>
+      </c>
+      <c r="K7" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.7734</v>
-      </c>
-      <c r="K7" t="str">
+        <v>irq-delay</v>
+      </c>
+      <c r="L7" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>irq-delay</v>
-      </c>
-      <c r="L7" s="2">
+        <v>-0.0173931345910988</v>
+      </c>
+      <c r="M7" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0173931345910988</v>
-      </c>
-      <c r="M7" s="2">
+        <v>-0.00447515292481143</v>
+      </c>
+      <c r="N7" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00447515292481143</v>
-      </c>
-      <c r="N7" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>0.00294906949673431</v>
       </c>
     </row>
@@ -13785,31 +13931,31 @@
         <v>irq-delay</v>
       </c>
       <c r="G8" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.353</v>
+      </c>
+      <c r="H8" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.353</v>
-      </c>
-      <c r="H8" s="2">
+        <v>34.9256</v>
+      </c>
+      <c r="I8" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9256</v>
-      </c>
-      <c r="I8" s="2">
+        <v>82.3698</v>
+      </c>
+      <c r="K8" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.3698</v>
-      </c>
-      <c r="K8" t="str">
+        <v>irq-stats</v>
+      </c>
+      <c r="L8" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>irq-stats</v>
-      </c>
-      <c r="L8" s="2">
+        <v>-0.00854157896750993</v>
+      </c>
+      <c r="M8" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00854157896750993</v>
-      </c>
-      <c r="M8" s="2">
+        <v>-0.00454926373757904</v>
+      </c>
+      <c r="N8" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00454926373757904</v>
-      </c>
-      <c r="N8" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00349212688548064</v>
       </c>
     </row>
@@ -13831,31 +13977,31 @@
         <v>irq-stats</v>
       </c>
       <c r="G9" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.8156</v>
+      </c>
+      <c r="H9" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.8156</v>
-      </c>
-      <c r="H9" s="2">
+        <v>34.923</v>
+      </c>
+      <c r="I9" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.923</v>
-      </c>
-      <c r="I9" s="2">
+        <v>81.8408</v>
+      </c>
+      <c r="K9" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.8408</v>
-      </c>
-      <c r="K9" t="str">
+        <v>irq-trace</v>
+      </c>
+      <c r="L9" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>irq-trace</v>
-      </c>
-      <c r="L9" s="2">
+        <v>-0.0108568367073591</v>
+      </c>
+      <c r="M9" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0108568367073591</v>
-      </c>
-      <c r="M9" s="2">
+        <v>-0.00944627821199099</v>
+      </c>
+      <c r="N9" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00944627821199099</v>
-      </c>
-      <c r="N9" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00327295574204042</v>
       </c>
     </row>
@@ -13877,31 +14023,31 @@
         <v>irq-trace</v>
       </c>
       <c r="G10" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.6946</v>
+      </c>
+      <c r="H10" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.6946</v>
-      </c>
-      <c r="H10" s="2">
+        <v>34.7512</v>
+      </c>
+      <c r="I10" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.7512</v>
-      </c>
-      <c r="I10" s="2">
+        <v>81.8588</v>
+      </c>
+      <c r="K10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.8588</v>
-      </c>
-      <c r="K10" t="str">
+        <v>kprobe</v>
+      </c>
+      <c r="L10" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>kprobe</v>
-      </c>
-      <c r="L10" s="2">
+        <v>-0.0110328728330335</v>
+      </c>
+      <c r="M10" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0110328728330335</v>
-      </c>
-      <c r="M10" s="2">
+        <v>-0.00534167935101702</v>
+      </c>
+      <c r="N10" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00534167935101702</v>
-      </c>
-      <c r="N10" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00133937920991255</v>
       </c>
     </row>
@@ -13923,31 +14069,31 @@
         <v>kprobe</v>
       </c>
       <c r="G11" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.6854</v>
+      </c>
+      <c r="H11" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.6854</v>
-      </c>
-      <c r="H11" s="2">
+        <v>34.8952</v>
+      </c>
+      <c r="I11" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8952</v>
-      </c>
-      <c r="I11" s="2">
+        <v>82.0176</v>
+      </c>
+      <c r="K11" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.0176</v>
-      </c>
-      <c r="K11" t="str">
+        <v>load-monitor</v>
+      </c>
+      <c r="L11" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>load-monitor</v>
-      </c>
-      <c r="L11" s="2">
+        <v>-0.00892809306953413</v>
+      </c>
+      <c r="M11" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00892809306953413</v>
-      </c>
-      <c r="M11" s="2">
+        <v>-0.00575213923711466</v>
+      </c>
+      <c r="N11" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00575213923711466</v>
-      </c>
-      <c r="N11" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00317554634495594</v>
       </c>
     </row>
@@ -13969,31 +14115,31 @@
         <v>load-monitor</v>
       </c>
       <c r="G12" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.7954</v>
+      </c>
+      <c r="H12" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.7954</v>
-      </c>
-      <c r="H12" s="2">
+        <v>34.8808</v>
+      </c>
+      <c r="I12" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8808</v>
-      </c>
-      <c r="I12" s="2">
+        <v>81.8668</v>
+      </c>
+      <c r="K12" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.8668</v>
-      </c>
-      <c r="K12" t="str">
+        <v>mutex-monitor</v>
+      </c>
+      <c r="L12" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>mutex-monitor</v>
-      </c>
-      <c r="L12" s="2">
+        <v>-0.0102407102674983</v>
+      </c>
+      <c r="M12" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0102407102674983</v>
-      </c>
-      <c r="M12" s="2">
+        <v>-0.00345470404131948</v>
+      </c>
+      <c r="N12" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00345470404131948</v>
-      </c>
-      <c r="N12" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>0.00127362786688038</v>
       </c>
     </row>
@@ -14015,31 +14161,31 @@
         <v>mutex-monitor</v>
       </c>
       <c r="G13" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.7268</v>
+      </c>
+      <c r="H13" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.7268</v>
-      </c>
-      <c r="H13" s="2">
+        <v>34.9614</v>
+      </c>
+      <c r="I13" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9614</v>
-      </c>
-      <c r="I13" s="2">
+        <v>82.2322</v>
+      </c>
+      <c r="K13" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.2322</v>
-      </c>
-      <c r="K13" t="str">
+        <v>perf</v>
+      </c>
+      <c r="L13" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>perf</v>
-      </c>
-      <c r="L13" s="2">
+        <v>-0.0148367838965215</v>
+      </c>
+      <c r="M13" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0148367838965215</v>
-      </c>
-      <c r="M13" s="2">
+        <v>-0.00540438850028215</v>
+      </c>
+      <c r="N13" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00540438850028215</v>
-      </c>
-      <c r="N13" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00100818725982486</v>
       </c>
     </row>
@@ -14061,31 +14207,31 @@
         <v>perf</v>
       </c>
       <c r="G14" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.4866</v>
+      </c>
+      <c r="H14" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.4866</v>
-      </c>
-      <c r="H14" s="2">
+        <v>34.893</v>
+      </c>
+      <c r="I14" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.893</v>
-      </c>
-      <c r="I14" s="2">
+        <v>82.0448</v>
+      </c>
+      <c r="K14" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.0448</v>
-      </c>
-      <c r="K14" t="str">
+        <v>ping-delay</v>
+      </c>
+      <c r="L14" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>ping-delay</v>
-      </c>
-      <c r="L14" s="2">
+        <v>-0.0046573035857795</v>
+      </c>
+      <c r="M14" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0046573035857795</v>
-      </c>
-      <c r="M14" s="2">
+        <v>-0.00501103110943873</v>
+      </c>
+      <c r="N14" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00501103110943873</v>
-      </c>
-      <c r="N14" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00478767186670507</v>
       </c>
     </row>
@@ -14107,31 +14253,31 @@
         <v>ping-delay</v>
       </c>
       <c r="G15" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>52.0186</v>
+      </c>
+      <c r="H15" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>52.0186</v>
-      </c>
-      <c r="H15" s="2">
+        <v>34.9068</v>
+      </c>
+      <c r="I15" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9068</v>
-      </c>
-      <c r="I15" s="2">
+        <v>81.7344</v>
+      </c>
+      <c r="K15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.7344</v>
-      </c>
-      <c r="K15" t="str">
+        <v>run-trace</v>
+      </c>
+      <c r="L15" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>run-trace</v>
-      </c>
-      <c r="L15" s="2">
+        <v>-0.0119207072060006</v>
+      </c>
+      <c r="M15" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0119207072060006</v>
-      </c>
-      <c r="M15" s="2">
+        <v>-0.00614549662795788</v>
+      </c>
+      <c r="N15" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00614549662795788</v>
-      </c>
-      <c r="N15" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.000633161081049571</v>
       </c>
     </row>
@@ -14153,31 +14299,31 @@
         <v>run-trace</v>
       </c>
       <c r="G16" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.639</v>
+      </c>
+      <c r="H16" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.639</v>
-      </c>
-      <c r="H16" s="2">
+        <v>34.867</v>
+      </c>
+      <c r="I16" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.867</v>
-      </c>
-      <c r="I16" s="2">
+        <v>82.0756</v>
+      </c>
+      <c r="K16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.0756</v>
-      </c>
-      <c r="K16" t="str">
+        <v>sched-delay</v>
+      </c>
+      <c r="L16" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>sched-delay</v>
-      </c>
-      <c r="L16" s="2">
+        <v>-0.00538440932226088</v>
+      </c>
+      <c r="M16" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00538440932226088</v>
-      </c>
-      <c r="M16" s="2">
+        <v>-0.00578064339587115</v>
+      </c>
+      <c r="N16" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00578064339587115</v>
-      </c>
-      <c r="N16" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>7.79275176674478e-5</v>
       </c>
     </row>
@@ -14199,31 +14345,31 @@
         <v>sched-delay</v>
       </c>
       <c r="G17" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.9806</v>
+      </c>
+      <c r="H17" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.9806</v>
-      </c>
-      <c r="H17" s="2">
+        <v>34.8798</v>
+      </c>
+      <c r="I17" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8798</v>
-      </c>
-      <c r="I17" s="2">
+        <v>82.134</v>
+      </c>
+      <c r="K17" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.134</v>
-      </c>
-      <c r="K17" t="str">
+        <v>sys-cost</v>
+      </c>
+      <c r="L17" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>sys-cost</v>
-      </c>
-      <c r="L17" s="2">
+        <v>-0.00851096398913183</v>
+      </c>
+      <c r="M17" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00851096398913183</v>
-      </c>
-      <c r="M17" s="2">
+        <v>-0.00419011133724386</v>
+      </c>
+      <c r="N17" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00419011133724386</v>
-      </c>
-      <c r="N17" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00104958625358595</v>
       </c>
     </row>
@@ -14245,31 +14391,31 @@
         <v>sys-cost</v>
       </c>
       <c r="G18" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.8172</v>
+      </c>
+      <c r="H18" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.8172</v>
-      </c>
-      <c r="H18" s="2">
+        <v>34.9356</v>
+      </c>
+      <c r="I18" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9356</v>
-      </c>
-      <c r="I18" s="2">
+        <v>82.0414</v>
+      </c>
+      <c r="K18" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.0414</v>
-      </c>
-      <c r="K18" t="str">
+        <v>sys-delay</v>
+      </c>
+      <c r="L18" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>sys-delay</v>
-      </c>
-      <c r="L18" s="2">
+        <v>-0.0114844437641115</v>
+      </c>
+      <c r="M18" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0114844437641115</v>
-      </c>
-      <c r="M18" s="2">
+        <v>-0.00751369624828233</v>
+      </c>
+      <c r="N18" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00751369624828233</v>
-      </c>
-      <c r="N18" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00126632216209897</v>
       </c>
     </row>
@@ -14291,31 +14437,31 @@
         <v>sys-delay</v>
       </c>
       <c r="G19" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.6618</v>
+      </c>
+      <c r="H19" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.6618</v>
-      </c>
-      <c r="H19" s="2">
+        <v>34.819</v>
+      </c>
+      <c r="I19" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.819</v>
-      </c>
-      <c r="I19" s="2">
+        <v>82.0236</v>
+      </c>
+      <c r="K19" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>82.0236</v>
-      </c>
-      <c r="K19" t="str">
+        <v>tcp-retrans</v>
+      </c>
+      <c r="L19" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>tcp-retrans</v>
-      </c>
-      <c r="L19" s="2">
+        <v>-0.00744709349049027</v>
+      </c>
+      <c r="M19" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00744709349049027</v>
-      </c>
-      <c r="M19" s="2">
+        <v>-0.00372834396538437</v>
+      </c>
+      <c r="N19" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00372834396538437</v>
-      </c>
-      <c r="N19" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00325103862769636</v>
       </c>
     </row>
@@ -14337,31 +14483,31 @@
         <v>tcp-retrans</v>
       </c>
       <c r="G20" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.8728</v>
+      </c>
+      <c r="H20" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.8728</v>
-      </c>
-      <c r="H20" s="2">
+        <v>34.9518</v>
+      </c>
+      <c r="I20" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.9518</v>
-      </c>
-      <c r="I20" s="2">
+        <v>81.8606</v>
+      </c>
+      <c r="K20" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.8606</v>
-      </c>
-      <c r="K20" t="str">
+        <v>uprobe</v>
+      </c>
+      <c r="L20" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>uprobe</v>
-      </c>
-      <c r="L20" s="2">
+        <v>-0.0119972446519461</v>
+      </c>
+      <c r="M20" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.0119972446519461</v>
-      </c>
-      <c r="M20" s="2">
+        <v>-0.00968571314554764</v>
+      </c>
+      <c r="N20" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00968571314554764</v>
-      </c>
-      <c r="N20" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00384036548005782</v>
       </c>
     </row>
@@ -14383,31 +14529,31 @@
         <v>uprobe</v>
       </c>
       <c r="G21" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.635</v>
+      </c>
+      <c r="H21" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.635</v>
-      </c>
-      <c r="H21" s="2">
+        <v>34.7428</v>
+      </c>
+      <c r="I21" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.7428</v>
-      </c>
-      <c r="I21" s="2">
+        <v>81.8122</v>
+      </c>
+      <c r="K21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.8122</v>
-      </c>
-      <c r="K21" t="str">
+        <v>utilization</v>
+      </c>
+      <c r="L21" s="2">
         <f ca="1" t="shared" si="4"/>
-        <v>utilization</v>
-      </c>
-      <c r="L21" s="2">
+        <v>-0.00959396884925957</v>
+      </c>
+      <c r="M21" s="2">
         <f ca="1" t="shared" si="5"/>
-        <v>-0.00959396884925957</v>
-      </c>
-      <c r="M21" s="2">
+        <v>-0.00778163534059588</v>
+      </c>
+      <c r="N21" s="2">
         <f ca="1" t="shared" si="6"/>
-        <v>-0.00778163534059588</v>
-      </c>
-      <c r="N21" s="2">
-        <f ca="1" t="shared" si="7"/>
         <v>-0.00685518631982413</v>
       </c>
     </row>
@@ -14429,19 +14575,19 @@
         <v>utilization</v>
       </c>
       <c r="G22" s="2">
+        <f ca="1" t="shared" si="7"/>
+        <v>51.7606</v>
+      </c>
+      <c r="H22" s="2">
         <f ca="1" t="shared" si="1"/>
-        <v>51.7606</v>
-      </c>
-      <c r="H22" s="2">
+        <v>34.8096</v>
+      </c>
+      <c r="I22" s="2">
         <f ca="1" t="shared" si="2"/>
-        <v>34.8096</v>
-      </c>
-      <c r="I22" s="2">
+        <v>81.5646</v>
+      </c>
+      <c r="K22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>81.5646</v>
-      </c>
-      <c r="K22" t="str">
-        <f ca="1" t="shared" si="4"/>
         <v>test</v>
       </c>
       <c r="L22" s="2">
@@ -14457,7 +14603,7 @@
         <v>-0.204747831947355</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -14475,19 +14621,34 @@
         <v>test</v>
       </c>
       <c r="G23" s="2">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(B$2,5*(ROW(B23)-2),0,5))</f>
         <v>65.2172</v>
       </c>
       <c r="H23" s="2">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">AVERAGE(OFFSET(C$2,5*(ROW(C23)-2),0,5))</f>
         <v>42.7936</v>
       </c>
       <c r="I23" s="2">
-        <f ca="1" t="shared" si="3"/>
+        <f ca="1">AVERAGE(OFFSET(D$2,5*(ROW(D23)-2),0,5))</f>
         <v>103.2724</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2">
+        <f ca="1">(G25-G24)/G24</f>
+        <v>-0.00349057334074598</v>
+      </c>
+      <c r="M23" s="2">
+        <f ca="1">(H25-H24)/H24</f>
+        <v>-0.00304215558452828</v>
+      </c>
+      <c r="N23" s="2">
+        <f ca="1">(I25-I24)/I24</f>
+        <v>0.0023772772851718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -14500,8 +14661,38 @@
       <c r="D24">
         <v>82.527</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2">
+        <f ca="1">AVERAGE(OFFSET(B$2,5*(ROW(B24)-2),0,5))</f>
+        <v>28.4194</v>
+      </c>
+      <c r="H24" s="2">
+        <f ca="1">AVERAGE(OFFSET(C$2,5*(ROW(C24)-2),0,5))</f>
+        <v>21.6294</v>
+      </c>
+      <c r="I24" s="2">
+        <f ca="1">AVERAGE(OFFSET(D$2,5*(ROW(D24)-2),0,5))</f>
+        <v>53.2542</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2">
+        <f ca="1">(G26-G24)/G24</f>
+        <v>-0.00652371267514437</v>
+      </c>
+      <c r="M24" s="2">
+        <f ca="1">(H26-H24)/H24</f>
+        <v>-0.00729562539876255</v>
+      </c>
+      <c r="N24" s="2">
+        <f ca="1">(I26-I24)/I24</f>
+        <v>-0.00239605514682399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -14514,8 +14705,23 @@
       <c r="D25">
         <v>81.757</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2">
+        <f ca="1">AVERAGE(OFFSET(B$2,5*(ROW(B25)-2),0,5))</f>
+        <v>28.3202</v>
+      </c>
+      <c r="H25" s="2">
+        <f ca="1">AVERAGE(OFFSET(C$2,5*(ROW(C25)-2),0,5))</f>
+        <v>21.5636</v>
+      </c>
+      <c r="I25" s="2">
+        <f ca="1">AVERAGE(OFFSET(D$2,5*(ROW(D25)-2),0,5))</f>
+        <v>53.3808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -14527,6 +14733,21 @@
       </c>
       <c r="D26">
         <v>82.321</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="2">
+        <f ca="1">AVERAGE(OFFSET(B$2,5*(ROW(B26)-2),0,5))</f>
+        <v>28.234</v>
+      </c>
+      <c r="H26" s="2">
+        <f ca="1">AVERAGE(OFFSET(C$2,5*(ROW(C26)-2),0,5))</f>
+        <v>21.4716</v>
+      </c>
+      <c r="I26" s="2">
+        <f ca="1">AVERAGE(OFFSET(D$2,5*(ROW(D26)-2),0,5))</f>
+        <v>53.1266</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -15651,7 +15872,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B107">
         <v>65.669</v>
@@ -15665,7 +15886,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B108">
         <v>65.864</v>
@@ -15679,7 +15900,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B109">
         <v>66.061</v>
@@ -15693,7 +15914,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B110">
         <v>63.143</v>
@@ -15707,7 +15928,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <v>65.349</v>
@@ -15717,6 +15938,216 @@
       </c>
       <c r="D111">
         <v>103.929</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="4">
+        <v>28.28</v>
+      </c>
+      <c r="C112">
+        <v>22.072</v>
+      </c>
+      <c r="D112">
+        <v>53.682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113">
+        <v>28.595</v>
+      </c>
+      <c r="C113">
+        <v>21.498</v>
+      </c>
+      <c r="D113">
+        <v>52.744</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114">
+        <v>28.523</v>
+      </c>
+      <c r="C114">
+        <v>21.375</v>
+      </c>
+      <c r="D114">
+        <v>53.272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115">
+        <v>28.422</v>
+      </c>
+      <c r="C115">
+        <v>21.546</v>
+      </c>
+      <c r="D115">
+        <v>53.563</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116">
+        <v>28.277</v>
+      </c>
+      <c r="C116">
+        <v>21.656</v>
+      </c>
+      <c r="D116" s="5">
+        <v>53.01</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117">
+        <v>28.273</v>
+      </c>
+      <c r="C117">
+        <v>21.762</v>
+      </c>
+      <c r="D117" s="5">
+        <v>53.58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118">
+        <v>28.505</v>
+      </c>
+      <c r="C118">
+        <v>21.541</v>
+      </c>
+      <c r="D118">
+        <v>54.183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119">
+        <v>28.101</v>
+      </c>
+      <c r="C119">
+        <v>21.664</v>
+      </c>
+      <c r="D119">
+        <v>53.214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120">
+        <v>28.276</v>
+      </c>
+      <c r="C120">
+        <v>21.391</v>
+      </c>
+      <c r="D120">
+        <v>52.784</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121">
+        <v>28.446</v>
+      </c>
+      <c r="C121" s="5">
+        <v>21.46</v>
+      </c>
+      <c r="D121">
+        <v>53.143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122">
+        <v>27.959</v>
+      </c>
+      <c r="C122">
+        <v>21.491</v>
+      </c>
+      <c r="D122">
+        <v>53.117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123">
+        <v>28.048</v>
+      </c>
+      <c r="C123">
+        <v>21.602</v>
+      </c>
+      <c r="D123">
+        <v>53.103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>28.486</v>
+      </c>
+      <c r="C124">
+        <v>21.441</v>
+      </c>
+      <c r="D124" s="5">
+        <v>52.87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>28.344</v>
+      </c>
+      <c r="C125">
+        <v>21.431</v>
+      </c>
+      <c r="D125">
+        <v>53.276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126">
+        <v>28.333</v>
+      </c>
+      <c r="C126">
+        <v>21.393</v>
+      </c>
+      <c r="D126">
+        <v>53.267</v>
       </c>
     </row>
   </sheetData>
